--- a/data.xlsx
+++ b/data.xlsx
@@ -1,36 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayth\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9CE51-0137-47FC-B9B2-21CD69320F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>aac</t>
+  </si>
+  <si>
+    <t>waca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wac
+</t>
+  </si>
+  <si>
+    <t>awcac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac
+</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f
+</t>
+  </si>
+  <si>
+    <t>adwda</t>
+  </si>
+  <si>
+    <t>adawdwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adwad
+</t>
+  </si>
+  <si>
+    <t>addd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adddadwd
+</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -42,84 +148,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,95 +469,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>wdaw</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>awd</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">awd
-</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>awd</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ad
-</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr"/>
-      <c r="H1" t="inlineStr"/>
-      <c r="I1" t="inlineStr"/>
-      <c r="J1" t="inlineStr"/>
-      <c r="K1" t="inlineStr"/>
-      <c r="L1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>wdaw</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>awd</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">awd
-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>awd</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ad
-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-    </row>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="26" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="27" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
